--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1370487.927617775</v>
+        <v>1405806.682943542</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914465</v>
+        <v>426806.9758914464</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478711</v>
+        <v>8362709.488478714</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>224.955318164091</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>186.0850531309659</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -718,7 +718,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9681713128233</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>54.82907102477793</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>87.7061602166668</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>63.9067613594508</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>46.23478909343806</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>190.3453970742847</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>103.9917919211018</v>
+        <v>224.1670833407776</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>261.7218267657362</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>66.24742245580323</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>109.5876032785227</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>52.18293713757069</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>47.47529300550314</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>73.9173740920687</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>41.5220312565076</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>16.23536817739058</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>75.3170546811963</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1703,7 +1703,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>47.29162376596675</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
         <v>65.50479675552441</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.5452544581846</v>
       </c>
       <c r="T16" t="n">
-        <v>47.47529300550318</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>208.7662932966501</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>117.5232560593144</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>147.8477473493568</v>
       </c>
       <c r="T18" t="n">
-        <v>135.5856913417537</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>131.9680216153336</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.437582148066</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>391.9595101134552</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>45.43345970665899</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.3320769692259</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>150.9974633111188</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>365.2610561149775</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>229.1956178915596</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H24" t="n">
-        <v>65.90747854024177</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>123.6039762133034</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>85.45158784361547</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>18.52756460465321</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.96895584898412</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>112.7964205214912</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>13.08993799274022</v>
+        <v>13.08993799274044</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>47.69041635368079</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>108.8292457167759</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>104.4814346654897</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>134.7307170396223</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>166.6390883124277</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>91.94671950156098</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>100.8367104035704</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>155.6940865933796</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>73.9173740920687</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>214.0064097820903</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>30.71286338238961</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>131.0870344152981</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
@@ -3325,13 +3325,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>25.18674943245854</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3401,7 +3401,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>27.47589768952058</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.96458348310386</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>10.33195459289805</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>113.4354297488391</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>27.47589768952045</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>13.19917922193405</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>187.4835994426808</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>194.3529512437824</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>249.1009675601877</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -3790,7 +3790,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.6252186004261</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>41.89609790246497</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>9.298635705472273</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>157.22559466273</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>179.2093028684878</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4112,7 +4112,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>19.04449791804963</v>
+        <v>27.47589768952058</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>54.82618992455453</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>42.05848982862546</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.7186438601369</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C2" t="n">
-        <v>241.7186438601369</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7186438601369</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E2" t="n">
-        <v>241.7186438601369</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F2" t="n">
-        <v>234.7731431109335</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>219.3158324895849</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>219.3158324895849</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>485.167420504237</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>241.7186438601369</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W2" t="n">
-        <v>241.7186438601369</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X2" t="n">
-        <v>241.7186438601369</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.7186438601369</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>856.0084976188955</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>653.8219029776615</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>653.8219029776615</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V3" t="n">
-        <v>418.6697947459187</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W3" t="n">
-        <v>418.6697947459187</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X3" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4512,22 +4512,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
         <v>41.77557929797318</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279.1848366757484</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C6" t="n">
-        <v>279.1848366757484</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D6" t="n">
-        <v>279.1848366757484</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E6" t="n">
-        <v>279.1848366757484</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>132.6502787026334</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
         <v>132.6502787026334</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>899.5048713091708</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="V6" t="n">
-        <v>486.9451354407024</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="W6" t="n">
-        <v>486.9451354407024</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="X6" t="n">
-        <v>486.9451354407024</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="Y6" t="n">
-        <v>279.1848366757484</v>
+        <v>726.0875267598396</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4770,7 +4770,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,22 +4907,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
         <v>20.03527576299844</v>
@@ -4941,25 +4941,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1122.361007678598</v>
+        <v>1040.413449661277</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.361007678598</v>
+        <v>671.4509327208655</v>
       </c>
       <c r="D11" t="n">
-        <v>764.0953090718475</v>
+        <v>313.185234114115</v>
       </c>
       <c r="E11" t="n">
-        <v>378.3070564736033</v>
+        <v>313.185234114115</v>
       </c>
       <c r="F11" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U11" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V11" t="n">
-        <v>1928.646091352029</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="W11" t="n">
-        <v>1575.877436081915</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="X11" t="n">
-        <v>1508.96084774272</v>
+        <v>1817.152621701211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1508.96084774272</v>
+        <v>1427.013289725399</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>940.2321985945478</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>765.7791693134208</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>616.8447596521695</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>101.5297900452609</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2241.626303475332</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>2013.448799545047</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1778.296691313304</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1524.059334585103</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1316.20783437957</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>1108.447535614616</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
         <v>48.81975253256327</v>
@@ -5208,43 +5208,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U13" t="n">
-        <v>351.4590821581503</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V13" t="n">
-        <v>96.77459395226342</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W13" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.77459395226342</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1246.955840192009</v>
+        <v>1165.457239343441</v>
       </c>
       <c r="C14" t="n">
-        <v>877.9933232515971</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="D14" t="n">
-        <v>877.9933232515971</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9933232515971</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F14" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
         <v>48.81975253256327</v>
@@ -5290,7 +5290,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N14" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O14" t="n">
         <v>2037.925350935285</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X14" t="n">
-        <v>2023.695012231942</v>
+        <v>1597.538017032897</v>
       </c>
       <c r="Y14" t="n">
-        <v>1633.55568025613</v>
+        <v>1207.398685057085</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>929.9448703088869</v>
+        <v>890.3999085640012</v>
       </c>
       <c r="C15" t="n">
-        <v>755.49184102776</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D15" t="n">
-        <v>606.5574313665087</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E15" t="n">
-        <v>447.3199763610532</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F15" t="n">
-        <v>300.7854183879382</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G15" t="n">
-        <v>162.7555308370998</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H15" t="n">
         <v>114.9862139017798</v>
@@ -5357,25 +5357,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225003</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593126</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M15" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5402,7 +5402,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1098.160207328955</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>519.8853873997637</v>
       </c>
       <c r="T16" t="n">
-        <v>592.6833282610578</v>
+        <v>519.8853873997637</v>
       </c>
       <c r="U16" t="n">
-        <v>303.5042407384502</v>
+        <v>519.8853873997637</v>
       </c>
       <c r="V16" t="n">
-        <v>48.81975253256327</v>
+        <v>519.8853873997637</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>998.0661903063665</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="C17" t="n">
-        <v>629.1036733659547</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="D17" t="n">
-        <v>629.1036733659547</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E17" t="n">
-        <v>629.1036733659547</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F17" t="n">
-        <v>629.1036733659547</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I17" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J17" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M17" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P17" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q17" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T17" t="n">
-        <v>2322.27726697229</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U17" t="n">
-        <v>2068.497572984173</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V17" t="n">
-        <v>1737.434685640602</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="W17" t="n">
-        <v>1384.666030370488</v>
+        <v>1434.285791293052</v>
       </c>
       <c r="X17" t="n">
-        <v>1384.666030370488</v>
+        <v>1060.820033031973</v>
       </c>
       <c r="Y17" t="n">
-        <v>1384.666030370488</v>
+        <v>670.6807010561608</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>842.2405468607036</v>
+        <v>733.2411437123158</v>
       </c>
       <c r="C18" t="n">
-        <v>667.7875175795766</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="D18" t="n">
-        <v>518.8531079183253</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E18" t="n">
-        <v>359.6156529128699</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H18" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K18" t="n">
         <v>285.1110033225004</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521037</v>
+        <v>2233.996571745931</v>
       </c>
       <c r="T18" t="n">
-        <v>2143.634651741488</v>
+        <v>2034.6352485931</v>
       </c>
       <c r="U18" t="n">
-        <v>1915.457147811203</v>
+        <v>1806.457744662815</v>
       </c>
       <c r="V18" t="n">
-        <v>1680.30503957946</v>
+        <v>1571.305636431072</v>
       </c>
       <c r="W18" t="n">
-        <v>1426.067682851258</v>
+        <v>1317.068279702871</v>
       </c>
       <c r="X18" t="n">
-        <v>1218.216182645725</v>
+        <v>1109.216779497338</v>
       </c>
       <c r="Y18" t="n">
-        <v>1010.455883880772</v>
+        <v>901.4564807323839</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K19" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L19" t="n">
         <v>206.6297039190408</v>
@@ -5700,25 +5700,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T19" t="n">
-        <v>507.3371377460778</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U19" t="n">
-        <v>507.3371377460778</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V19" t="n">
-        <v>507.3371377460778</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W19" t="n">
-        <v>217.9199677091171</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="X19" t="n">
-        <v>217.9199677091171</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.724354406469</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C20" t="n">
-        <v>855.724354406469</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D20" t="n">
-        <v>855.724354406469</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E20" t="n">
-        <v>855.724354406469</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
-        <v>444.7384496168615</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5755,10 +5755,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>2005.929284707482</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V20" t="n">
-        <v>2005.929284707482</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W20" t="n">
-        <v>2005.929284707482</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X20" t="n">
-        <v>1632.463526446403</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y20" t="n">
-        <v>1242.324194470591</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>776.0740854914872</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C21" t="n">
-        <v>601.6210562103602</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D21" t="n">
-        <v>452.6866465491088</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E21" t="n">
-        <v>293.4491915436533</v>
+        <v>414.0127068772263</v>
       </c>
       <c r="F21" t="n">
-        <v>293.4491915436533</v>
+        <v>267.4781489041113</v>
       </c>
       <c r="G21" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079783</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5876,7 +5876,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>944.2894225115551</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>351.4590821581503</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>351.4590821581503</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>201.3424427458146</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>201.3424427458146</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>201.3424427458146</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581503</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V22" t="n">
-        <v>351.4590821581503</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W22" t="n">
-        <v>351.4590821581503</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X22" t="n">
-        <v>351.4590821581503</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y22" t="n">
-        <v>351.4590821581503</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>877.9933232515971</v>
+        <v>1367.016752038667</v>
       </c>
       <c r="C23" t="n">
-        <v>877.9933232515971</v>
+        <v>998.0542350982553</v>
       </c>
       <c r="D23" t="n">
-        <v>877.9933232515971</v>
+        <v>998.0542350982553</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9933232515971</v>
+        <v>998.0542350982553</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6016,25 +6016,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2028.19825355261</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>2028.19825355261</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.19825355261</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X23" t="n">
-        <v>1654.732495291531</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y23" t="n">
-        <v>1264.593163315719</v>
+        <v>1367.016752038667</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>882.5823026510593</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>708.1292733699323</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>559.1948637086811</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>399.9574087032256</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>253.4228507301105</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>115.3929631792721</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,13 +6068,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>540.2677802593126</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M24" t="n">
         <v>1034.670495654875</v>
@@ -6095,25 +6095,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1955.798903601558</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.646795369816</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.409438641614</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1258.557938436081</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1050.797639671127</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.638169680758</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="C25" t="n">
-        <v>471.7019867528511</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="D25" t="n">
-        <v>321.5853473405153</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E25" t="n">
-        <v>173.6722537581222</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F25" t="n">
-        <v>173.6722537581222</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="V25" t="n">
-        <v>640.638169680758</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="W25" t="n">
-        <v>640.638169680758</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="X25" t="n">
-        <v>640.638169680758</v>
+        <v>338.2850531957404</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.638169680758</v>
+        <v>338.2850531957404</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1267.631526924731</v>
+        <v>1595.157855854921</v>
       </c>
       <c r="C26" t="n">
-        <v>898.669009984319</v>
+        <v>1226.195338914509</v>
       </c>
       <c r="D26" t="n">
-        <v>540.4033113775685</v>
+        <v>1226.195338914509</v>
       </c>
       <c r="E26" t="n">
-        <v>540.4033113775685</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F26" t="n">
-        <v>540.4033113775685</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G26" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>1967.593327971733</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V26" t="n">
-        <v>1636.530440628162</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W26" t="n">
-        <v>1283.761785358048</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X26" t="n">
-        <v>1283.761785358048</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="Y26" t="n">
-        <v>1267.631526924731</v>
+        <v>1981.757695919042</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>816.0090920043505</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C27" t="n">
-        <v>641.5560627232235</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D27" t="n">
-        <v>492.6216530619722</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E27" t="n">
-        <v>333.3841980565167</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8496400834017</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G27" t="n">
         <v>48.81975253256327</v>
@@ -6308,10 +6308,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
         <v>1158.640861843456</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.2244290244184</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="28">
@@ -6393,25 +6393,25 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
         <v>627.4160100921315</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>999.5613538981668</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="C29" t="n">
-        <v>999.5613538981668</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="D29" t="n">
-        <v>951.3892161671761</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E29" t="n">
-        <v>951.3892161671761</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F29" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G29" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6490,25 +6490,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S29" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T29" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U29" t="n">
-        <v>1717.224081305859</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V29" t="n">
-        <v>1386.161193962289</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="W29" t="n">
-        <v>1386.161193962289</v>
+        <v>1688.065485281169</v>
       </c>
       <c r="X29" t="n">
-        <v>1386.161193962289</v>
+        <v>1314.599727020089</v>
       </c>
       <c r="Y29" t="n">
-        <v>1386.161193962289</v>
+        <v>1204.671195993043</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F30" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G30" t="n">
         <v>48.81975253256327</v>
@@ -6542,25 +6542,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6572,22 +6572,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="31">
@@ -6630,40 +6630,40 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V31" t="n">
-        <v>276.8093034305806</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W31" t="n">
-        <v>276.8093034305806</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y31" t="n">
         <v>48.81975253256327</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>997.0904856892771</v>
+        <v>776.0479680797255</v>
       </c>
       <c r="C32" t="n">
-        <v>628.1279687488654</v>
+        <v>407.0854511393138</v>
       </c>
       <c r="D32" t="n">
-        <v>628.1279687488654</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E32" t="n">
-        <v>628.1279687488654</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F32" t="n">
-        <v>217.1420639592579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G32" t="n">
-        <v>217.1420639592579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6703,10 +6703,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V32" t="n">
-        <v>2109.924739284593</v>
+        <v>2279.021553650853</v>
       </c>
       <c r="W32" t="n">
-        <v>1757.156084014479</v>
+        <v>1926.252898380739</v>
       </c>
       <c r="X32" t="n">
-        <v>1383.690325753399</v>
+        <v>1552.787140119659</v>
       </c>
       <c r="Y32" t="n">
-        <v>1383.690325753399</v>
+        <v>1162.647808143847</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>779.8344674874215</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C33" t="n">
-        <v>605.3814382062945</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D33" t="n">
-        <v>456.4470285450433</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E33" t="n">
-        <v>297.2095735395878</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F33" t="n">
-        <v>150.6750155664728</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225003</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593126</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6812,19 +6812,19 @@
         <v>2081.228572368206</v>
       </c>
       <c r="U33" t="n">
-        <v>1853.051068437921</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V33" t="n">
-        <v>1617.898960206178</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W33" t="n">
-        <v>1363.661603477976</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X33" t="n">
-        <v>1155.810103272443</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y33" t="n">
-        <v>948.0498045074896</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C34" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D34" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
         <v>48.81975253256327</v>
@@ -6867,43 +6867,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>412.9009368039365</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U34" t="n">
-        <v>412.9009368039365</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V34" t="n">
-        <v>412.9009368039365</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W34" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X34" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>859.7912685882286</v>
+        <v>567.019151004846</v>
       </c>
       <c r="C35" t="n">
-        <v>490.8287516478169</v>
+        <v>567.019151004846</v>
       </c>
       <c r="D35" t="n">
-        <v>459.8056573221708</v>
+        <v>567.019151004846</v>
       </c>
       <c r="E35" t="n">
-        <v>459.8056573221708</v>
+        <v>181.2308984066017</v>
       </c>
       <c r="F35" t="n">
-        <v>48.81975253256327</v>
+        <v>181.2308984066017</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>181.2308984066017</v>
       </c>
       <c r="H35" t="n">
         <v>48.81975253256327</v>
@@ -6943,7 +6943,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T35" t="n">
-        <v>2221.37302195985</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U35" t="n">
-        <v>1967.593327971733</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V35" t="n">
-        <v>1636.530440628162</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W35" t="n">
-        <v>1636.530440628162</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X35" t="n">
-        <v>1636.530440628162</v>
+        <v>1343.758323044779</v>
       </c>
       <c r="Y35" t="n">
-        <v>1246.39110865235</v>
+        <v>953.6189910689677</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
         <v>1158.640861843456</v>
@@ -7034,34 +7034,34 @@
         <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2415.546465585276</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2255.14873447815</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2055.787411325319</v>
       </c>
       <c r="U36" t="n">
-        <v>1995.825244415101</v>
+        <v>1827.609907395033</v>
       </c>
       <c r="V36" t="n">
-        <v>1760.673136183358</v>
+        <v>1592.45779916329</v>
       </c>
       <c r="W36" t="n">
-        <v>1506.435779455157</v>
+        <v>1338.220442435089</v>
       </c>
       <c r="X36" t="n">
-        <v>1298.584279249624</v>
+        <v>1130.368942229556</v>
       </c>
       <c r="Y36" t="n">
-        <v>1090.82398048467</v>
+        <v>922.6086434646021</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C37" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D37" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E37" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>266.0109893060261</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
         <v>48.81975253256327</v>
@@ -7104,43 +7104,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>412.9009368039365</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V37" t="n">
-        <v>412.9009368039365</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W37" t="n">
-        <v>412.9009368039365</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X37" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y37" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1197.470190639937</v>
+        <v>890.62921025027</v>
       </c>
       <c r="C38" t="n">
-        <v>828.5076736995254</v>
+        <v>521.6666933098584</v>
       </c>
       <c r="D38" t="n">
-        <v>470.2419750927749</v>
+        <v>163.4009947031079</v>
       </c>
       <c r="E38" t="n">
-        <v>459.8056573221708</v>
+        <v>163.4009947031079</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>163.4009947031079</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256327</v>
+        <v>163.4009947031079</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256327</v>
@@ -7201,25 +7201,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U38" t="n">
-        <v>1936.838685974173</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V38" t="n">
-        <v>1936.838685974173</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="W38" t="n">
-        <v>1584.070030704059</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="X38" t="n">
-        <v>1584.070030704059</v>
+        <v>1667.368382290203</v>
       </c>
       <c r="Y38" t="n">
-        <v>1584.070030704059</v>
+        <v>1277.229050314392</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439331</v>
+        <v>950.3620754742187</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628061</v>
+        <v>775.9090461930917</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015548</v>
+        <v>626.9746365318405</v>
       </c>
       <c r="E39" t="n">
-        <v>239.5596775960993</v>
+        <v>467.737181526385</v>
       </c>
       <c r="F39" t="n">
-        <v>93.02511962298431</v>
+        <v>321.20262355327</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>183.1727360024316</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>76.57318454217989</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7286,19 +7286,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1788.426568192975</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1534.189211464774</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1326.337711259241</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>1118.577412494287</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.252471973697</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C40" t="n">
-        <v>231.252471973697</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D40" t="n">
-        <v>231.252471973697</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E40" t="n">
-        <v>231.252471973697</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F40" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G40" t="n">
         <v>48.81975253256327</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>451.2607965063331</v>
       </c>
       <c r="T40" t="n">
-        <v>412.9009368039367</v>
+        <v>451.2607965063331</v>
       </c>
       <c r="U40" t="n">
-        <v>412.9009368039367</v>
+        <v>451.2607965063331</v>
       </c>
       <c r="V40" t="n">
-        <v>412.9009368039367</v>
+        <v>451.2607965063331</v>
       </c>
       <c r="W40" t="n">
-        <v>412.9009368039367</v>
+        <v>451.2607965063331</v>
       </c>
       <c r="X40" t="n">
-        <v>412.9009368039367</v>
+        <v>451.2607965063331</v>
       </c>
       <c r="Y40" t="n">
-        <v>412.9009368039367</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.7988449929635</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="C41" t="n">
-        <v>820.7988449929635</v>
+        <v>898.669009984319</v>
       </c>
       <c r="D41" t="n">
-        <v>462.533146386213</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F41" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G41" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H41" t="n">
         <v>210.9160074365284</v>
@@ -7411,25 +7411,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697315</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
@@ -7438,25 +7438,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U41" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V41" t="n">
-        <v>1971.003775293977</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W41" t="n">
-        <v>1971.003775293977</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="X41" t="n">
-        <v>1597.538017032897</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="Y41" t="n">
-        <v>1207.398685057085</v>
+        <v>1094.985122351776</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.7751048338188</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C42" t="n">
-        <v>814.3220755526918</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
@@ -7493,22 +7493,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7517,25 +7517,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2440.987626628164</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T42" t="n">
-        <v>2241.626303475332</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.448799545047</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1778.296691313304</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1524.059334585103</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X42" t="n">
-        <v>1316.20783437957</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="C43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="D43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="E43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="F43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="G43" t="n">
-        <v>207.4609049796586</v>
+        <v>91.13904334313395</v>
       </c>
       <c r="H43" t="n">
         <v>48.81975253256327</v>
@@ -7593,28 +7593,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S43" t="n">
-        <v>631.2456083620993</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T43" t="n">
-        <v>631.2456083620993</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="U43" t="n">
-        <v>631.2456083620993</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="V43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="W43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="X43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
       <c r="Y43" t="n">
-        <v>376.5611201562124</v>
+        <v>260.2392585196878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1653.419779522975</v>
+        <v>537.1207884561588</v>
       </c>
       <c r="C44" t="n">
-        <v>1284.457262582563</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="D44" t="n">
-        <v>926.1915639758126</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E44" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F44" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7651,22 +7651,22 @@
         <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
@@ -7675,25 +7675,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U44" t="n">
-        <v>2187.207932640046</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V44" t="n">
-        <v>2187.207932640046</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W44" t="n">
-        <v>1834.439277369932</v>
+        <v>1687.325718757172</v>
       </c>
       <c r="X44" t="n">
-        <v>1653.419779522975</v>
+        <v>1313.859960496092</v>
       </c>
       <c r="Y44" t="n">
-        <v>1653.419779522975</v>
+        <v>923.7206285202806</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.991705784318</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.839597552575</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.602240824373</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.7559354604702</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H46" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>260.2392585196878</v>
+        <v>585.2581798579758</v>
       </c>
       <c r="U46" t="n">
-        <v>260.2392585196878</v>
+        <v>585.2581798579758</v>
       </c>
       <c r="V46" t="n">
-        <v>217.7559354604702</v>
+        <v>585.2581798579758</v>
       </c>
       <c r="W46" t="n">
-        <v>217.7559354604702</v>
+        <v>585.2581798579758</v>
       </c>
       <c r="X46" t="n">
-        <v>217.7559354604702</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.7559354604702</v>
+        <v>357.2686289599586</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194304</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>245.6177531937815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617106</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>203.8252941185861</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453154</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194304</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>245.6177531937815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>193.2401765302594</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>233.1030882730268</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918563</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>145.1542189759753</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>303.4836782226658</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>48.05747717687825</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>53.35061880807848</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>119.9339200192852</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
         <v>157.0547409226243</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23469,16 +23469,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>341.211810406973</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>353.4957325010785</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>97.39144430711944</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>58.24193217968242</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>94.33274301836754</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9845675425501</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>173.9675483668305</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>99.89520256231604</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>10.94600644669799</v>
       </c>
       <c r="T18" t="n">
-        <v>61.78201857954903</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23940,10 +23940,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>93.49183893271965</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
         <v>286.2872966473816</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.085416188525</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>22.04627915667675</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>322.5098594448775</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>91.216128968671</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>53.35061880807845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>16.41174971366956</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24183,19 +24183,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>171.3450620358008</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>41.61498962673392</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>22.04627915667666</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H24" t="n">
-        <v>39.6260774054074</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>43.80523681148497</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>52.22830032617343</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>140.0082727044378</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>363.4028054676086</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>370.2689828070694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24654,7 +24654,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>212.3699225553131</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>306.9926252670022</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>277.4086929392777</v>
       </c>
     </row>
     <row r="30">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>92.88627525581298</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24891,22 +24891,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>117.4069262842057</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>171.3450620358008</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>159.5533425892019</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24976,7 +24976,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>235.8055389685739</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>35.81287827175962</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>70.20164229760309</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>11.70324560694687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>323.9701782382933</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>195.1053964863315</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.886647551595</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>198.4198312014621</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>109.4446295416845</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
@@ -25365,19 +25365,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>178.2343623835338</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>371.5984154793637</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>212.7570011527904</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>38.02889906600396</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>132.2218688009972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25599,10 +25599,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>26.39439803387131</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>170.9199405272252</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>132.8294025120741</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,7 +25645,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>48.05747717687825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.1586430201593</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25833,19 +25833,19 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>204.5793617710799</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>208.0472971082775</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>190.5217978099812</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>206.8512309729331</v>
+        <v>198.4198312014621</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>52.22830032617343</v>
@@ -26070,25 +26070,25 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>170.6336706234987</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>210.0791534952025</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657994.7714120614</v>
+        <v>657994.7714120613</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657994.7714120614</v>
+        <v>657994.7714120615</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657994.7714120614</v>
+        <v>657994.7714120613</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657994.7714120614</v>
+        <v>657994.7714120615</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657994.7714120614</v>
+        <v>657994.7714120615</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>352485.1114947451</v>
+        <v>352485.1114947453</v>
       </c>
       <c r="F2" t="n">
-        <v>352485.1114947452</v>
+        <v>352485.1114947453</v>
       </c>
       <c r="G2" t="n">
-        <v>352485.1114947453</v>
+        <v>352485.1114947454</v>
       </c>
       <c r="H2" t="n">
         <v>352485.1114947452</v>
       </c>
       <c r="I2" t="n">
-        <v>352485.1114947452</v>
+        <v>352485.1114947454</v>
       </c>
       <c r="J2" t="n">
         <v>352485.1114947452</v>
@@ -26343,19 +26343,19 @@
         <v>352485.1114947452</v>
       </c>
       <c r="L2" t="n">
+        <v>352485.1114947453</v>
+      </c>
+      <c r="M2" t="n">
         <v>352485.1114947452</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="O2" t="n">
+        <v>352485.1114947452</v>
+      </c>
+      <c r="P2" t="n">
         <v>352485.1114947453</v>
-      </c>
-      <c r="N2" t="n">
-        <v>352485.1114947452</v>
-      </c>
-      <c r="O2" t="n">
-        <v>352485.1114947453</v>
-      </c>
-      <c r="P2" t="n">
-        <v>352485.1114947454</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109306</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,10 +26456,10 @@
         <v>61945.21508231327</v>
       </c>
       <c r="O4" t="n">
-        <v>61945.21508231325</v>
+        <v>61945.21508231326</v>
       </c>
       <c r="P4" t="n">
-        <v>61945.21508231326</v>
+        <v>61945.21508231327</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="H5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66928.33998284244</v>
+        <v>66928.33998284221</v>
       </c>
       <c r="C6" t="n">
         <v>147697.7715143901</v>
       </c>
       <c r="D6" t="n">
-        <v>147697.7715143901</v>
+        <v>147697.77151439</v>
       </c>
       <c r="E6" t="n">
-        <v>-130000.3653144189</v>
+        <v>-123728.3331980597</v>
       </c>
       <c r="F6" t="n">
-        <v>239434.9338183613</v>
+        <v>245706.9659347204</v>
       </c>
       <c r="G6" t="n">
-        <v>239434.9338183613</v>
+        <v>245706.9659347204</v>
       </c>
       <c r="H6" t="n">
-        <v>239434.9338183613</v>
+        <v>245706.9659347203</v>
       </c>
       <c r="I6" t="n">
-        <v>239434.9338183612</v>
+        <v>245706.9659347205</v>
       </c>
       <c r="J6" t="n">
-        <v>176374.991219255</v>
+        <v>182647.023335614</v>
       </c>
       <c r="K6" t="n">
-        <v>239434.9338183612</v>
+        <v>245706.9659347203</v>
       </c>
       <c r="L6" t="n">
-        <v>239434.9338183613</v>
+        <v>245706.9659347204</v>
       </c>
       <c r="M6" t="n">
-        <v>147420.6885372683</v>
+        <v>153692.7206536272</v>
       </c>
       <c r="N6" t="n">
-        <v>239434.9338183612</v>
+        <v>245706.9659347204</v>
       </c>
       <c r="O6" t="n">
-        <v>239434.9338183614</v>
+        <v>245706.9659347203</v>
       </c>
       <c r="P6" t="n">
-        <v>239434.9338183614</v>
+        <v>245706.9659347204</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="H4" t="n">
         <v>610.2469066570409</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>181.9207275776204</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>24.39083643943997</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27469,13 +27469,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27508,22 +27508,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>64.71499979101451</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>319.1698855250446</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27700,16 +27700,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>36.25107279319234</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>186.5657980559872</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>216.5306486674267</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>281.0308142361831</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>147.7031912398178</v>
+        <v>27.52789982014198</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.4099661909219</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
-        <v>257.7341181179922</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.45228430891411</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.8144330484658</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3322895077443</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695263</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
-        <v>257.7341181179922</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
         <v>528.4798964831782</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
         <v>528.4798964831782</v>
@@ -37402,10 +37402,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37633,7 +37633,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>207.3158823613948</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37870,7 +37870,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
-        <v>269.0322418464915</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
         <v>386.5629597537834</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38104,7 +38104,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
-        <v>499.39668221774</v>
+        <v>309.3596570595963</v>
       </c>
       <c r="N45" t="n">
         <v>528.4798964831782</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
